--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gnas-Adrb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gnas-Adrb2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>111.005114</v>
+        <v>189.0573523333333</v>
       </c>
       <c r="H2">
-        <v>333.015342</v>
+        <v>567.172057</v>
       </c>
       <c r="I2">
-        <v>0.07617677061978852</v>
+        <v>0.1182556374491171</v>
       </c>
       <c r="J2">
-        <v>0.0761767706197885</v>
+        <v>0.1182556374491171</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>49.32494666666667</v>
+        <v>11.42350833333333</v>
       </c>
       <c r="N2">
-        <v>147.97484</v>
+        <v>34.270525</v>
       </c>
       <c r="O2">
-        <v>0.5781391668179462</v>
+        <v>0.2763488058447062</v>
       </c>
       <c r="P2">
-        <v>0.5781391668179462</v>
+        <v>0.2763488058447063</v>
       </c>
       <c r="Q2">
-        <v>5475.321327777253</v>
+        <v>2159.698239857769</v>
       </c>
       <c r="R2">
-        <v>49277.89194999528</v>
+        <v>19437.28415871993</v>
       </c>
       <c r="S2">
-        <v>0.04404077469700633</v>
+        <v>0.03267980419346803</v>
       </c>
       <c r="T2">
-        <v>0.04404077469700633</v>
+        <v>0.03267980419346803</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>111.005114</v>
+        <v>189.0573523333333</v>
       </c>
       <c r="H3">
-        <v>333.015342</v>
+        <v>567.172057</v>
       </c>
       <c r="I3">
-        <v>0.07617677061978852</v>
+        <v>0.1182556374491171</v>
       </c>
       <c r="J3">
-        <v>0.0761767706197885</v>
+        <v>0.1182556374491171</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>5.080749</v>
       </c>
       <c r="O3">
-        <v>0.01985053671064022</v>
+        <v>0.04096986897477309</v>
       </c>
       <c r="P3">
-        <v>0.01985053671064022</v>
+        <v>0.04096986897477309</v>
       </c>
       <c r="Q3">
-        <v>187.996373983462</v>
+        <v>320.1843179367437</v>
       </c>
       <c r="R3">
-        <v>1691.967365851158</v>
+        <v>2881.658861430693</v>
       </c>
       <c r="S3">
-        <v>0.001512149781686131</v>
+        <v>0.004844917971818597</v>
       </c>
       <c r="T3">
-        <v>0.001512149781686131</v>
+        <v>0.004844917971818597</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>111.005114</v>
+        <v>189.0573523333333</v>
       </c>
       <c r="H4">
-        <v>333.015342</v>
+        <v>567.172057</v>
       </c>
       <c r="I4">
-        <v>0.07617677061978852</v>
+        <v>0.1182556374491171</v>
       </c>
       <c r="J4">
-        <v>0.0761767706197885</v>
+        <v>0.1182556374491171</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.189177999999999</v>
+        <v>8.972155666666666</v>
       </c>
       <c r="N4">
-        <v>21.567534</v>
+        <v>26.916467</v>
       </c>
       <c r="O4">
-        <v>0.08426456914619894</v>
+        <v>0.2170475507162041</v>
       </c>
       <c r="P4">
-        <v>0.08426456914619894</v>
+        <v>0.2170475507162042</v>
       </c>
       <c r="Q4">
-        <v>798.0355234562918</v>
+        <v>1696.251995062513</v>
       </c>
       <c r="R4">
-        <v>7182.319711106627</v>
+        <v>15266.26795556262</v>
       </c>
       <c r="S4">
-        <v>0.006419002755225305</v>
+        <v>0.02566709646671429</v>
       </c>
       <c r="T4">
-        <v>0.006419002755225304</v>
+        <v>0.02566709646671429</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>111.005114</v>
+        <v>189.0573523333333</v>
       </c>
       <c r="H5">
-        <v>333.015342</v>
+        <v>567.172057</v>
       </c>
       <c r="I5">
-        <v>0.07617677061978852</v>
+        <v>0.1182556374491171</v>
       </c>
       <c r="J5">
-        <v>0.0761767706197885</v>
+        <v>0.1182556374491171</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.10902833333333</v>
+        <v>19.24803433333333</v>
       </c>
       <c r="N5">
-        <v>81.327085</v>
+        <v>57.744103</v>
       </c>
       <c r="O5">
-        <v>0.3177457273252148</v>
+        <v>0.4656337744643164</v>
       </c>
       <c r="P5">
-        <v>0.3177457273252148</v>
+        <v>0.4656337744643165</v>
       </c>
       <c r="Q5">
-        <v>3009.240780570896</v>
+        <v>3638.982408681097</v>
       </c>
       <c r="R5">
-        <v>27083.16702513807</v>
+        <v>32750.84167812987</v>
       </c>
       <c r="S5">
-        <v>0.02420484338587076</v>
+        <v>0.05506381881711616</v>
       </c>
       <c r="T5">
-        <v>0.02420484338587075</v>
+        <v>0.05506381881711616</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>930.1503093333334</v>
+        <v>930.1503093333332</v>
       </c>
       <c r="H6">
         <v>2790.450928</v>
       </c>
       <c r="I6">
-        <v>0.6383115534299679</v>
+        <v>0.5818103152093762</v>
       </c>
       <c r="J6">
-        <v>0.6383115534299678</v>
+        <v>0.5818103152093762</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>49.32494666666667</v>
+        <v>11.42350833333333</v>
       </c>
       <c r="N6">
-        <v>147.97484</v>
+        <v>34.270525</v>
       </c>
       <c r="O6">
-        <v>0.5781391668179462</v>
+        <v>0.2763488058447062</v>
       </c>
       <c r="P6">
-        <v>0.5781391668179462</v>
+        <v>0.2763488058447063</v>
       </c>
       <c r="Q6">
-        <v>45879.61439985018</v>
+        <v>10625.57980992191</v>
       </c>
       <c r="R6">
-        <v>412916.5295986516</v>
+        <v>95630.21828929719</v>
       </c>
       <c r="S6">
-        <v>0.3690329096702706</v>
+        <v>0.1607825858362432</v>
       </c>
       <c r="T6">
-        <v>0.3690329096702705</v>
+        <v>0.1607825858362433</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>930.1503093333334</v>
+        <v>930.1503093333332</v>
       </c>
       <c r="H7">
         <v>2790.450928</v>
       </c>
       <c r="I7">
-        <v>0.6383115534299679</v>
+        <v>0.5818103152093762</v>
       </c>
       <c r="J7">
-        <v>0.6383115534299678</v>
+        <v>0.5818103152093762</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>5.080749</v>
       </c>
       <c r="O7">
-        <v>0.01985053671064022</v>
+        <v>0.04096986897477309</v>
       </c>
       <c r="P7">
-        <v>0.01985053671064022</v>
+        <v>0.04096986897477309</v>
       </c>
       <c r="Q7">
         <v>1575.286751331675</v>
@@ -883,10 +883,10 @@
         <v>14177.58076198507</v>
       </c>
       <c r="S7">
-        <v>0.01267082692418737</v>
+        <v>0.02383669238229957</v>
       </c>
       <c r="T7">
-        <v>0.01267082692418736</v>
+        <v>0.02383669238229957</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>930.1503093333334</v>
+        <v>930.1503093333332</v>
       </c>
       <c r="H8">
         <v>2790.450928</v>
       </c>
       <c r="I8">
-        <v>0.6383115534299679</v>
+        <v>0.5818103152093762</v>
       </c>
       <c r="J8">
-        <v>0.6383115534299678</v>
+        <v>0.5818103152093762</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.189177999999999</v>
+        <v>8.972155666666666</v>
       </c>
       <c r="N8">
-        <v>21.567534</v>
+        <v>26.916467</v>
       </c>
       <c r="O8">
-        <v>0.08426456914619894</v>
+        <v>0.2170475507162041</v>
       </c>
       <c r="P8">
-        <v>0.08426456914619894</v>
+        <v>0.2170475507162042</v>
       </c>
       <c r="Q8">
-        <v>6687.016140552395</v>
+        <v>8345.453368736818</v>
       </c>
       <c r="R8">
-        <v>60183.14526497155</v>
+        <v>75109.08031863136</v>
       </c>
       <c r="S8">
-        <v>0.05378704803081719</v>
+        <v>0.1262805038976178</v>
       </c>
       <c r="T8">
-        <v>0.05378704803081718</v>
+        <v>0.1262805038976178</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>930.1503093333334</v>
+        <v>930.1503093333332</v>
       </c>
       <c r="H9">
         <v>2790.450928</v>
       </c>
       <c r="I9">
-        <v>0.6383115534299679</v>
+        <v>0.5818103152093762</v>
       </c>
       <c r="J9">
-        <v>0.6383115534299678</v>
+        <v>0.5818103152093762</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.10902833333333</v>
+        <v>19.24803433333333</v>
       </c>
       <c r="N9">
-        <v>81.327085</v>
+        <v>57.744103</v>
       </c>
       <c r="O9">
-        <v>0.3177457273252148</v>
+        <v>0.4656337744643164</v>
       </c>
       <c r="P9">
-        <v>0.3177457273252148</v>
+        <v>0.4656337744643165</v>
       </c>
       <c r="Q9">
-        <v>25215.4710899761</v>
+        <v>17903.56508920862</v>
       </c>
       <c r="R9">
-        <v>226939.2398097849</v>
+        <v>161132.0858028776</v>
       </c>
       <c r="S9">
-        <v>0.2028207688046929</v>
+        <v>0.2709105330932155</v>
       </c>
       <c r="T9">
-        <v>0.2028207688046928</v>
+        <v>0.2709105330932156</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>343.5753833333333</v>
+        <v>420.6651306666666</v>
       </c>
       <c r="H10">
-        <v>1030.72615</v>
+        <v>1261.995392</v>
       </c>
       <c r="I10">
-        <v>0.235777093718306</v>
+        <v>0.2631266256807295</v>
       </c>
       <c r="J10">
-        <v>0.235777093718306</v>
+        <v>0.2631266256807295</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>49.32494666666667</v>
+        <v>11.42350833333333</v>
       </c>
       <c r="N10">
-        <v>147.97484</v>
+        <v>34.270525</v>
       </c>
       <c r="O10">
-        <v>0.5781391668179462</v>
+        <v>0.2763488058447062</v>
       </c>
       <c r="P10">
-        <v>0.5781391668179462</v>
+        <v>0.2763488058447063</v>
       </c>
       <c r="Q10">
-        <v>16946.83745889622</v>
+        <v>4805.471625713421</v>
       </c>
       <c r="R10">
-        <v>152521.537130066</v>
+        <v>43249.24463142079</v>
       </c>
       <c r="S10">
-        <v>0.1363119725170583</v>
+        <v>0.0727147287928166</v>
       </c>
       <c r="T10">
-        <v>0.1363119725170582</v>
+        <v>0.07271472879281662</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>343.5753833333333</v>
+        <v>420.6651306666666</v>
       </c>
       <c r="H11">
-        <v>1030.72615</v>
+        <v>1261.995392</v>
       </c>
       <c r="I11">
-        <v>0.235777093718306</v>
+        <v>0.2631266256807295</v>
       </c>
       <c r="J11">
-        <v>0.235777093718306</v>
+        <v>0.2631266256807295</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>5.080749</v>
       </c>
       <c r="O11">
-        <v>0.01985053671064022</v>
+        <v>0.04096986897477309</v>
       </c>
       <c r="P11">
-        <v>0.01985053671064022</v>
+        <v>0.04096986897477309</v>
       </c>
       <c r="Q11">
-        <v>581.8734284318167</v>
+        <v>712.4313139898452</v>
       </c>
       <c r="R11">
-        <v>5236.86085588635</v>
+        <v>6411.881825908607</v>
       </c>
       <c r="S11">
-        <v>0.004680301854383295</v>
+        <v>0.01078026337791365</v>
       </c>
       <c r="T11">
-        <v>0.004680301854383293</v>
+        <v>0.01078026337791365</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>343.5753833333333</v>
+        <v>420.6651306666666</v>
       </c>
       <c r="H12">
-        <v>1030.72615</v>
+        <v>1261.995392</v>
       </c>
       <c r="I12">
-        <v>0.235777093718306</v>
+        <v>0.2631266256807295</v>
       </c>
       <c r="J12">
-        <v>0.235777093718306</v>
+        <v>0.2631266256807295</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.189177999999999</v>
+        <v>8.972155666666666</v>
       </c>
       <c r="N12">
-        <v>21.567534</v>
+        <v>26.916467</v>
       </c>
       <c r="O12">
-        <v>0.08426456914619894</v>
+        <v>0.2170475507162041</v>
       </c>
       <c r="P12">
-        <v>0.08426456914619894</v>
+        <v>0.2170475507162042</v>
       </c>
       <c r="Q12">
-        <v>2470.024587201566</v>
+        <v>3774.273035880006</v>
       </c>
       <c r="R12">
-        <v>22230.2212848141</v>
+        <v>33968.45732292005</v>
       </c>
       <c r="S12">
-        <v>0.01986765521671603</v>
+        <v>0.05711098963222179</v>
       </c>
       <c r="T12">
-        <v>0.01986765521671602</v>
+        <v>0.05711098963222181</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>343.5753833333333</v>
+        <v>420.6651306666666</v>
       </c>
       <c r="H13">
-        <v>1030.72615</v>
+        <v>1261.995392</v>
       </c>
       <c r="I13">
-        <v>0.235777093718306</v>
+        <v>0.2631266256807295</v>
       </c>
       <c r="J13">
-        <v>0.235777093718306</v>
+        <v>0.2631266256807295</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>27.10902833333333</v>
+        <v>19.24803433333333</v>
       </c>
       <c r="N13">
-        <v>81.327085</v>
+        <v>57.744103</v>
       </c>
       <c r="O13">
-        <v>0.3177457273252148</v>
+        <v>0.4656337744643164</v>
       </c>
       <c r="P13">
-        <v>0.3177457273252148</v>
+        <v>0.4656337744643165</v>
       </c>
       <c r="Q13">
-        <v>9313.994801419194</v>
+        <v>8096.976877908151</v>
       </c>
       <c r="R13">
-        <v>83825.95321277274</v>
+        <v>72872.79190117336</v>
       </c>
       <c r="S13">
-        <v>0.07491716413014848</v>
+        <v>0.1225206438777774</v>
       </c>
       <c r="T13">
-        <v>0.07491716413014847</v>
+        <v>0.1225206438777774</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>72.47344466666667</v>
+        <v>58.84466766666667</v>
       </c>
       <c r="H14">
-        <v>217.420334</v>
+        <v>176.534003</v>
       </c>
       <c r="I14">
-        <v>0.04973458223193755</v>
+        <v>0.03680742166077718</v>
       </c>
       <c r="J14">
-        <v>0.04973458223193754</v>
+        <v>0.03680742166077718</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>49.32494666666667</v>
+        <v>11.42350833333333</v>
       </c>
       <c r="N14">
-        <v>147.97484</v>
+        <v>34.270525</v>
       </c>
       <c r="O14">
-        <v>0.5781391668179462</v>
+        <v>0.2763488058447062</v>
       </c>
       <c r="P14">
-        <v>0.5781391668179462</v>
+        <v>0.2763488058447063</v>
       </c>
       <c r="Q14">
-        <v>3574.748792932951</v>
+        <v>672.2125514623973</v>
       </c>
       <c r="R14">
-        <v>32172.73913639656</v>
+        <v>6049.912963161575</v>
       </c>
       <c r="S14">
-        <v>0.02875350993361101</v>
+        <v>0.01017168702217835</v>
       </c>
       <c r="T14">
-        <v>0.028753509933611</v>
+        <v>0.01017168702217835</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>72.47344466666667</v>
+        <v>58.84466766666667</v>
       </c>
       <c r="H15">
-        <v>217.420334</v>
+        <v>176.534003</v>
       </c>
       <c r="I15">
-        <v>0.04973458223193755</v>
+        <v>0.03680742166077718</v>
       </c>
       <c r="J15">
-        <v>0.04973458223193754</v>
+        <v>0.03680742166077718</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>5.080749</v>
       </c>
       <c r="O15">
-        <v>0.01985053671064022</v>
+        <v>0.04096986897477309</v>
       </c>
       <c r="P15">
-        <v>0.01985053671064022</v>
+        <v>0.04096986897477309</v>
       </c>
       <c r="Q15">
-        <v>122.7397938389073</v>
+        <v>99.65832880091635</v>
       </c>
       <c r="R15">
-        <v>1104.658144550166</v>
+        <v>896.9249592082471</v>
       </c>
       <c r="S15">
-        <v>0.0009872581503834314</v>
+        <v>0.001507995242741266</v>
       </c>
       <c r="T15">
-        <v>0.0009872581503834312</v>
+        <v>0.001507995242741266</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>72.47344466666667</v>
+        <v>58.84466766666667</v>
       </c>
       <c r="H16">
-        <v>217.420334</v>
+        <v>176.534003</v>
       </c>
       <c r="I16">
-        <v>0.04973458223193755</v>
+        <v>0.03680742166077718</v>
       </c>
       <c r="J16">
-        <v>0.04973458223193754</v>
+        <v>0.03680742166077718</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.189177999999999</v>
+        <v>8.972155666666666</v>
       </c>
       <c r="N16">
-        <v>21.567534</v>
+        <v>26.916467</v>
       </c>
       <c r="O16">
-        <v>0.08426456914619894</v>
+        <v>0.2170475507162041</v>
       </c>
       <c r="P16">
-        <v>0.08426456914619894</v>
+        <v>0.2170475507162042</v>
       </c>
       <c r="Q16">
-        <v>521.0244939818173</v>
+        <v>527.9635184586001</v>
       </c>
       <c r="R16">
-        <v>4689.220445836356</v>
+        <v>4751.671666127401</v>
       </c>
       <c r="S16">
-        <v>0.004190863143440419</v>
+        <v>0.007988960719650245</v>
       </c>
       <c r="T16">
-        <v>0.004190863143440419</v>
+        <v>0.007988960719650247</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>72.47344466666667</v>
+        <v>58.84466766666667</v>
       </c>
       <c r="H17">
-        <v>217.420334</v>
+        <v>176.534003</v>
       </c>
       <c r="I17">
-        <v>0.04973458223193755</v>
+        <v>0.03680742166077718</v>
       </c>
       <c r="J17">
-        <v>0.04973458223193754</v>
+        <v>0.03680742166077718</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>27.10902833333333</v>
+        <v>19.24803433333333</v>
       </c>
       <c r="N17">
-        <v>81.327085</v>
+        <v>57.744103</v>
       </c>
       <c r="O17">
-        <v>0.3177457273252148</v>
+        <v>0.4656337744643164</v>
       </c>
       <c r="P17">
-        <v>0.3177457273252148</v>
+        <v>0.4656337744643165</v>
       </c>
       <c r="Q17">
-        <v>1964.684664882932</v>
+        <v>1132.64418358159</v>
       </c>
       <c r="R17">
-        <v>17682.16198394639</v>
+        <v>10193.79765223431</v>
       </c>
       <c r="S17">
-        <v>0.0158029510045027</v>
+        <v>0.01713877867620732</v>
       </c>
       <c r="T17">
-        <v>0.0158029510045027</v>
+        <v>0.01713877867620732</v>
       </c>
     </row>
   </sheetData>
